--- a/test/performance/results.xlsx
+++ b/test/performance/results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jsacapdev\az.eventhub.tx\test\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF5DC5B-FD99-42EE-A4D0-CB95804BCF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F85B69-F90C-44AB-ACEA-884BDB31134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25200" windowHeight="16275" activeTab="1" xr2:uid="{E7D5BE48-E651-4699-BA07-92B567A6079A}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="Single Threaded Producer" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulated Multi-threaded Sender" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Test Client</t>
   </si>
@@ -94,7 +94,28 @@
     <t>Avg. Duration/sec</t>
   </si>
   <si>
-    <t>Event Grid (batch of 100 per Service Bus message)</t>
+    <t>Total Received</t>
+  </si>
+  <si>
+    <t>For every 1 servce bus message, create 10 threads, with each thread uploading 99 messages per batch (prove thread safety of Sender)</t>
+  </si>
+  <si>
+    <t>Sender Threads</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sender Per Thread Batch Size</t>
+  </si>
+  <si>
+    <t>Sender Throttled?</t>
+  </si>
+  <si>
+    <t>Source Sent</t>
+  </si>
+  <si>
+    <t>Tota Sent</t>
   </si>
 </sst>
 </file>
@@ -455,7 +476,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,10 +618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3089C2BB-85C7-4CC2-A378-A2C6570F760B}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,12 +632,17 @@
     <col min="4" max="5" width="11" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="11" width="16.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -632,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -640,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -648,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -656,84 +682,120 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>0.56943287037037038</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.58460648148148153</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(D11-C11)</f>
+        <v>1.5173611111111152E-2</v>
+      </c>
+      <c r="I11" s="1">
         <v>1000</v>
       </c>
-      <c r="D11" s="2">
-        <v>0.48549768518518521</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.48656250000000001</v>
-      </c>
-      <c r="F11" s="2">
-        <f>SUM(E11-D11)</f>
-        <v>1.0648148148147962E-3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>11.154500000000001</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10.032500000000001</v>
-      </c>
-      <c r="I11" s="1">
-        <v>8.9700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.50350694444444444</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.51410879629629624</v>
-      </c>
-      <c r="F12" s="2">
-        <f>SUM(E12-D12)</f>
-        <v>1.0601851851851807E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10.9878</v>
-      </c>
-      <c r="H12" s="1">
-        <v>9.8826000000000001</v>
-      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>99</v>
+      </c>
+      <c r="L11" s="1">
+        <f>SUM(I11*J11*K11)</f>
+        <v>990000</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="I12" s="1">
-        <v>9.0999999999999998E-2</v>
-      </c>
+        <f>SUM(L12/K12/J12)</f>
+        <v>100</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>99</v>
+      </c>
+      <c r="L12" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="I13" s="1">
+        <f>SUM(L13/K13/J13)</f>
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>99</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/performance/results.xlsx
+++ b/test/performance/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jsacapdev\az.eventhub.tx\test\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F85B69-F90C-44AB-ACEA-884BDB31134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E2158-45C7-4CA0-BF24-60E1542368D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25200" windowHeight="16275" activeTab="1" xr2:uid="{E7D5BE48-E651-4699-BA07-92B567A6079A}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,6 +752,9 @@
         <f>SUM(I11*J11*K11)</f>
         <v>990000</v>
       </c>
+      <c r="M11" s="1">
+        <v>990000</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>22</v>
       </c>

--- a/test/performance/results.xlsx
+++ b/test/performance/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jsacapdev\az.eventhub.tx\test\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E2158-45C7-4CA0-BF24-60E1542368D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1330A79B-14CB-4C42-BE93-4B28253A2192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25200" windowHeight="16275" activeTab="1" xr2:uid="{E7D5BE48-E651-4699-BA07-92B567A6079A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Test Client</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Tota Sent</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="B2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,9 +763,16 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2">
+        <v>0.57887731481481486</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.58040509259259254</v>
+      </c>
+      <c r="E12" s="2">
+        <f>SUM(D12-C12)</f>
+        <v>1.5277777777776835E-3</v>
+      </c>
       <c r="I12" s="1">
         <f>SUM(L12/K12/J12)</f>
         <v>100</v>
@@ -776,11 +786,21 @@
       <c r="L12" s="1">
         <v>99000</v>
       </c>
+      <c r="N12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2">
+        <v>0.57781249999999995</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.57781249999999995</v>
+      </c>
+      <c r="E13" s="2">
+        <f>SUM(D13-C13)</f>
+        <v>0</v>
+      </c>
       <c r="I13" s="1">
         <f>SUM(L13/K13/J13)</f>
         <v>10</v>
@@ -793,6 +813,9 @@
       </c>
       <c r="L13" s="1">
         <v>9900</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">

--- a/test/performance/results.xlsx
+++ b/test/performance/results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jsacapdev\az.eventhub.tx\test\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1330A79B-14CB-4C42-BE93-4B28253A2192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C3DCE-AAA0-4512-90EB-58B666A3F868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25200" windowHeight="16275" activeTab="1" xr2:uid="{E7D5BE48-E651-4699-BA07-92B567A6079A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E7D5BE48-E651-4699-BA07-92B567A6079A}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Threaded Producer" sheetId="1" r:id="rId1"/>
     <sheet name="Simulated Multi-threaded Sender" sheetId="3" r:id="rId2"/>
+    <sheet name="Soak" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>Test Client</t>
   </si>
@@ -119,16 +120,75 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Send 1 servce bus message every 1 second, each message create 10 threads, with each thread uploading 99 messages per batch (990 messages uploaded to Event Hub every second)</t>
+  </si>
+  <si>
+    <t>Throttled?</t>
+  </si>
+  <si>
+    <t>Snapshot 1</t>
+  </si>
+  <si>
+    <t>Failures Recorded?</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>&lt; 1%</t>
+  </si>
+  <si>
+    <t>Private Bytes (K)</t>
+  </si>
+  <si>
+    <t>Working Set (K)</t>
+  </si>
+  <si>
+    <t>Snapshot 2</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>25/03/2024</t>
+  </si>
+  <si>
+    <t>26/03</t>
+  </si>
+  <si>
+    <t>Yes, from 25/03 17:00 onwards</t>
+  </si>
+  <si>
+    <t>EventHubProducerClient</t>
+  </si>
+  <si>
+    <t>Compare Azure Event Hubs tiers - Azure Event Hubs | Microsoft Learn</t>
+  </si>
+  <si>
+    <t>On standard SKU, not Premium</t>
+  </si>
+  <si>
+    <t>27/03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,10 +211,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -162,8 +223,10 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -177,6 +240,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F62AB2-9F4D-3AC3-62E5-4C4B1F6F90E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="1905000"/>
+          <a:ext cx="9763125" cy="5173681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>161438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC85662B-0369-1C08-0060-8221884BB08B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3224893" y="7620000"/>
+          <a:ext cx="10014857" cy="5304938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>600839</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA75079-1DD8-840F-0B20-156AEC69C379}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16363950" y="2095500"/>
+          <a:ext cx="5477639" cy="5334744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259774</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>55044</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517AA213-20B1-3C1F-20BF-D19437374B76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4346865" y="13525500"/>
+          <a:ext cx="9957954" cy="4627044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3089C2BB-85C7-4CC2-A378-A2C6570F760B}">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,4 +1070,268 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B76C092-69F4-4A17-9288-017552F4D2E2}">
+  <dimension ref="C2:V79"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD94" sqref="AD94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
+    <col min="5" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="24.85546875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.58609953703703699</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.596099537037037</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1">
+        <v>52488</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>121152</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.3641550925925926</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.32618055555555553</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="1">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C70" r:id="rId1" location="quotas" display="https://learn.microsoft.com/en-us/azure/event-hubs/compare-tiers - quotas" xr:uid="{76EB3C9F-ED4D-4DF5-A2F6-21E3D517E590}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/test/performance/results.xlsx
+++ b/test/performance/results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jsacapdev\az.eventhub.tx\test\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C3DCE-AAA0-4512-90EB-58B666A3F868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD7B672-E318-4585-B136-72ACBDC0560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E7D5BE48-E651-4699-BA07-92B567A6079A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E7D5BE48-E651-4699-BA07-92B567A6079A}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Threaded Producer" sheetId="1" r:id="rId1"/>
     <sheet name="Simulated Multi-threaded Sender" sheetId="3" r:id="rId2"/>
-    <sheet name="Soak" sheetId="4" r:id="rId3"/>
+    <sheet name="Soak 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Soak 2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Test Client</t>
   </si>
@@ -171,6 +172,27 @@
   </si>
   <si>
     <t>27/03</t>
+  </si>
+  <si>
+    <t>Internally generated</t>
+  </si>
+  <si>
+    <t>Windows Service</t>
+  </si>
+  <si>
+    <t>Single threaded. Scheduled.</t>
+  </si>
+  <si>
+    <t>3 threads, each processing 1 batch of messages as they become available. Each batch contains 100 messages. A new batch is created every 500m/s. 86400 x 2 100 = 17280000 messages per day.</t>
+  </si>
+  <si>
+    <t>28/03/2024</t>
+  </si>
+  <si>
+    <t>~60000</t>
+  </si>
+  <si>
+    <t>~125000</t>
   </si>
 </sst>
 </file>
@@ -412,6 +434,55 @@
         <a:xfrm>
           <a:off x="4346865" y="13525500"/>
           <a:ext cx="9957954" cy="4627044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26BE8D7-93E6-E633-EB65-C820E90EEB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689412" y="1714500"/>
+          <a:ext cx="10354235" cy="4748840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B76C092-69F4-4A17-9288-017552F4D2E2}">
   <dimension ref="C2:V79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD94" sqref="AD94"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,4 +1405,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A236A68B-4DA2-48EE-B074-5CA24777DB39}">
+  <dimension ref="B2:S16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.58609953703703699</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>